--- a/Sample Docs/Students.xlsx
+++ b/Sample Docs/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Desktop\GIT\Resonance\Sample Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05103FAC-8733-4626-B949-08FDB8B2754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C42D7F-DA82-42E1-BC01-D386E250176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,12 +81,6 @@
     <t>ProfilePicture</t>
   </si>
   <si>
-    <t>RC2</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>yyy</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>fdgfd</t>
   </si>
   <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
     <t>Telangana</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>Class 12/NEET</t>
+  </si>
+  <si>
+    <t>RC3</t>
+  </si>
+  <si>
+    <t>Mehboobnagar</t>
+  </si>
+  <si>
+    <t>Ramya</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,46 +553,46 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>44567</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>38364</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
       </c>
       <c r="L2">
         <v>345678</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O2">
         <v>9999999999</v>
@@ -601,7 +601,7 @@
         <v>754567</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Sample Docs/Students.xlsx
+++ b/Sample Docs/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Desktop\GIT\Resonance\Sample Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C42D7F-DA82-42E1-BC01-D386E250176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE5A9A1-27F5-4254-87A1-761A4ABB2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>AdmissionId</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>RC3</t>
-  </si>
-  <si>
-    <t>Mehboobnagar</t>
   </si>
   <si>
     <t>Ramya</t>
@@ -471,7 +468,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +556,7 @@
         <v>44567</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -578,9 +575,6 @@
       </c>
       <c r="I2" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>

--- a/Sample Docs/Students.xlsx
+++ b/Sample Docs/Students.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Desktop\GIT\Resonance\Sample Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE5A9A1-27F5-4254-87A1-761A4ABB2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A43E0-D13E-4B86-BF2F-EF434B2B7A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
   <si>
     <t>AdmissionId</t>
   </si>
@@ -81,19 +81,7 @@
     <t>ProfilePicture</t>
   </si>
   <si>
-    <t>yyy</t>
-  </si>
-  <si>
-    <t>fggg</t>
-  </si>
-  <si>
-    <t>sfgsdgdf</t>
-  </si>
-  <si>
-    <t>dfgsdfg</t>
-  </si>
-  <si>
-    <t>fdgfd</t>
+    <t>Hyderabad</t>
   </si>
   <si>
     <t>Telangana</t>
@@ -102,23 +90,269 @@
     <t>Male</t>
   </si>
   <si>
-    <t>abc@txt.com</t>
-  </si>
-  <si>
-    <t>Class 12/NEET</t>
-  </si>
-  <si>
-    <t>RC3</t>
+    <t>RC21</t>
+  </si>
+  <si>
+    <t>RC23</t>
+  </si>
+  <si>
+    <t>RC24</t>
+  </si>
+  <si>
+    <t>RC25</t>
+  </si>
+  <si>
+    <t>Raghu Kumar Ch</t>
+  </si>
+  <si>
+    <t>Narayana Ch</t>
+  </si>
+  <si>
+    <t>Madhavi Ch</t>
+  </si>
+  <si>
+    <t>1-58, Radha Nilayam</t>
+  </si>
+  <si>
+    <t>Krushi Nagar, Road No. 8</t>
+  </si>
+  <si>
+    <t>Near KFC</t>
+  </si>
+  <si>
+    <t>Kakinada</t>
+  </si>
+  <si>
+    <t>Tuljapur</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>raghuk@outlook.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>29-32, Nilgiri Road</t>
+  </si>
+  <si>
+    <t>Dwaraka Nagar</t>
+  </si>
+  <si>
+    <t>Near Bus Stand</t>
+  </si>
+  <si>
+    <t>22-096/2, Bhavani Road</t>
+  </si>
+  <si>
+    <t>Niranjan Market</t>
+  </si>
+  <si>
+    <t>Near Temple</t>
+  </si>
+  <si>
+    <t>89-6, Gandhi Nagar</t>
+  </si>
+  <si>
+    <t>Raju Nagar, Market Road</t>
+  </si>
+  <si>
+    <t>Near Rythu Bajar</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Mounika</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Prema</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Bhavani</t>
+  </si>
+  <si>
+    <t>Srikanth</t>
+  </si>
+  <si>
+    <t>Viswanath</t>
+  </si>
+  <si>
+    <t>Ramani</t>
+  </si>
+  <si>
+    <t>geeta@gmail.com</t>
+  </si>
+  <si>
+    <t>srikanth@gmail.com</t>
+  </si>
+  <si>
+    <t>mounika@gmail.com</t>
+  </si>
+  <si>
+    <t>https://lessonvids.s3.ap-south-1.amazonaws.com/students/student1.webp</t>
+  </si>
+  <si>
+    <t>https://lessonvids.s3.ap-south-1.amazonaws.com/students/student2.webp</t>
+  </si>
+  <si>
+    <t>https://lessonvids.s3.ap-south-1.amazonaws.com/students/student3.webp</t>
+  </si>
+  <si>
+    <t>https://lessonvids.s3.ap-south-1.amazonaws.com/students/student4.webp</t>
+  </si>
+  <si>
+    <t>Class VI</t>
+  </si>
+  <si>
+    <t>Class VII</t>
+  </si>
+  <si>
+    <t>Class VIII</t>
+  </si>
+  <si>
+    <t>Class IX</t>
+  </si>
+  <si>
+    <t>Class X</t>
+  </si>
+  <si>
+    <t>RC26</t>
+  </si>
+  <si>
+    <t>RC27</t>
+  </si>
+  <si>
+    <t>RC28</t>
+  </si>
+  <si>
+    <t>RC29</t>
+  </si>
+  <si>
+    <t>RC30</t>
+  </si>
+  <si>
+    <t>RC31</t>
+  </si>
+  <si>
+    <t>RC32</t>
+  </si>
+  <si>
+    <t>Sasanka</t>
+  </si>
+  <si>
+    <t>MVS Murthy</t>
+  </si>
+  <si>
+    <t>Vijaya Lakshmi</t>
+  </si>
+  <si>
+    <t>Sharada</t>
+  </si>
+  <si>
+    <t>Ramdas</t>
+  </si>
+  <si>
+    <t>Sireesha</t>
+  </si>
+  <si>
+    <t>Anudeep</t>
+  </si>
+  <si>
+    <t>Vijaya Kumar</t>
+  </si>
+  <si>
+    <t>Anajani Kumari</t>
+  </si>
+  <si>
+    <t>Ramakrishna</t>
+  </si>
+  <si>
+    <t>Sasilatha</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>Ramulu</t>
+  </si>
+  <si>
+    <t>Balamani</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Rajeswari</t>
+  </si>
+  <si>
+    <t>Divyansh</t>
+  </si>
+  <si>
+    <t>Kalpana</t>
+  </si>
+  <si>
+    <t>Latha</t>
   </si>
   <si>
     <t>Ramya</t>
+  </si>
+  <si>
+    <t>sasanka@gmail.com</t>
+  </si>
+  <si>
+    <t>sharada@gmail.com</t>
+  </si>
+  <si>
+    <t>anudeep@gmail.com</t>
+  </si>
+  <si>
+    <t>latha@gmail.com</t>
+  </si>
+  <si>
+    <t>vinay@gmail.com</t>
+  </si>
+  <si>
+    <t>ramya@gmail.com</t>
+  </si>
+  <si>
+    <t>divyansh@gmail.com</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>HighSchool</t>
+  </si>
+  <si>
+    <t>JEE</t>
+  </si>
+  <si>
+    <t>NEET</t>
+  </si>
+  <si>
+    <t>Class 11</t>
+  </si>
+  <si>
+    <t>Class 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +370,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,12 +424,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,34 +721,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D189715-4BE2-4D0E-89C4-5F6CAFE91427}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,74 +789,696 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>44567</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>38364</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>500003</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2">
+        <v>9876543210</v>
+      </c>
+      <c r="Q2">
+        <v>9876543214</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B3" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <v>543301</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3">
+        <v>9876543211</v>
+      </c>
+      <c r="Q3">
+        <v>9876543215</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="L2">
-        <v>345678</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="B4" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <v>413601</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4">
+        <v>9876543212</v>
+      </c>
+      <c r="Q4">
+        <v>9876543216</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2">
-        <v>9999999999</v>
-      </c>
-      <c r="P2">
-        <v>754567</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5" s="1">
+        <v>44567</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>500003</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5">
+        <v>9876543213</v>
+      </c>
+      <c r="Q5">
+        <v>9876543217</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44567</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>500003</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6">
+        <v>9876543218</v>
+      </c>
+      <c r="Q6">
+        <v>9876543225</v>
+      </c>
+      <c r="R6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7">
+        <v>543301</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7">
+        <v>9876543219</v>
+      </c>
+      <c r="Q7">
+        <v>9876543226</v>
+      </c>
+      <c r="R7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8">
+        <v>413601</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8">
+        <v>9876543220</v>
+      </c>
+      <c r="Q8">
+        <v>9876543227</v>
+      </c>
+      <c r="R8" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44567</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>500003</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9">
+        <v>9876543221</v>
+      </c>
+      <c r="Q9">
+        <v>9876543228</v>
+      </c>
+      <c r="R9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44567</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>500003</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10">
+        <v>9876543222</v>
+      </c>
+      <c r="Q10">
+        <v>9876543229</v>
+      </c>
+      <c r="R10" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>543301</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11">
+        <v>9876543223</v>
+      </c>
+      <c r="Q11">
+        <v>9876543230</v>
+      </c>
+      <c r="R11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="1">
+        <v>38364</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12">
+        <v>413601</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12">
+        <v>9876543224</v>
+      </c>
+      <c r="Q12">
+        <v>9876543231</v>
+      </c>
+      <c r="R12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="S13" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{8D29FBB0-F534-41AC-855B-8FD52D3CCC3C}"/>
+    <hyperlink ref="S6" r:id="rId1" xr:uid="{AEA177A8-729D-F74F-9BB9-820EE4E58CE2}"/>
+    <hyperlink ref="S7" r:id="rId2" xr:uid="{DC51C8C8-9B07-DF49-88C0-162FBBAD5604}"/>
+    <hyperlink ref="S8" r:id="rId3" xr:uid="{A847C3AF-CDC6-1546-B889-568616323BF0}"/>
+    <hyperlink ref="S9" r:id="rId4" xr:uid="{5A991341-4537-B541-AECE-020CB5B44A13}"/>
+    <hyperlink ref="S10" r:id="rId5" xr:uid="{D3A62DB6-7F4B-2F48-B15D-B362EB0868CA}"/>
+    <hyperlink ref="S11" r:id="rId6" xr:uid="{25151F17-FC8D-114C-ACA7-7C7D2648CE4F}"/>
+    <hyperlink ref="S12" r:id="rId7" xr:uid="{0468CBBA-D542-9D40-B117-7C99623906E5}"/>
+    <hyperlink ref="S5" r:id="rId8" xr:uid="{66DC296C-71A9-B14E-B11C-424338E74397}"/>
+    <hyperlink ref="R5" r:id="rId9" xr:uid="{F018B1D8-C101-D242-93B5-5F92F16E97FE}"/>
+    <hyperlink ref="S4" r:id="rId10" xr:uid="{C9842032-7DCA-FC40-A3F9-3F99AE9DA1F0}"/>
+    <hyperlink ref="R4" r:id="rId11" xr:uid="{44C4DCD1-0E3E-7349-8287-AEB46528477D}"/>
+    <hyperlink ref="S3" r:id="rId12" xr:uid="{A1EE5398-0DBC-6F47-B30C-FB53CAB201F7}"/>
+    <hyperlink ref="R3" r:id="rId13" xr:uid="{0D31DAFE-9995-D543-9D3A-86D42F9065A9}"/>
+    <hyperlink ref="S2" r:id="rId14" xr:uid="{BEC7D86D-67E2-8B46-A5C0-B322AEB6E5F7}"/>
+    <hyperlink ref="R2" r:id="rId15" xr:uid="{8D29FBB0-F534-41AC-855B-8FD52D3CCC3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
